--- a/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
+++ b/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
@@ -58,9 +58,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
-    <t>销售流水</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 店铺编号</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>业务类型</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>销售价</t>
-  </si>
-  <si>
     <t>销售金额</t>
   </si>
   <si>
@@ -206,6 +197,18 @@
   </si>
   <si>
     <t>${obj.costAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售明细分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -688,144 +691,144 @@
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
+++ b/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
@@ -118,9 +118,6 @@
     <t>${obj.orderNo}</t>
   </si>
   <si>
-    <t>${obj.time}</t>
-  </si>
-  <si>
     <t>${obj.skuName}</t>
   </si>
   <si>
@@ -209,6 +206,10 @@
   </si>
   <si>
     <t>商品销售明细分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.completeTime}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +642,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -700,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -727,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>9</v>
@@ -745,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>14</v>
@@ -757,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -771,64 +772,64 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
+++ b/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve"> 店铺编号</t>
   </si>
@@ -106,9 +106,6 @@
     <t>折扣</t>
   </si>
   <si>
-    <t>订单类型</t>
-  </si>
-  <si>
     <t>${obj.branchCode}</t>
   </si>
   <si>
@@ -155,18 +152,6 @@
   </si>
   <si>
     <t>${obj.discount}</t>
-  </si>
-  <si>
-    <t>小票号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.orderTypeStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.ticketNo}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>完成时间</t>
@@ -639,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,13 +644,11 @@
     <col min="18" max="18" width="18.625" customWidth="1"/>
     <col min="19" max="19" width="18.5" customWidth="1"/>
     <col min="20" max="20" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="22.75" customWidth="1"/>
-    <col min="23" max="23" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -687,10 +670,8 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -728,10 +709,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>9</v>
@@ -746,95 +727,83 @@
         <v>15</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
+++ b/src/main/resources/template/excel/export/GoodSaleDetail.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,11 +39,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Y3")</t>
+          <t>jx:area(lastCell="U4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Y3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="U3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve"> 店铺编号</t>
   </si>
@@ -195,6 +200,41 @@
   </si>
   <si>
     <t>${obj.completeTime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he'j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(N3:N3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(P3:P3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(Q3:Q3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(R3:R3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(S3:S3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(T3:T3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +365,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -624,26 +664,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
     <col min="19" max="19" width="18.5" customWidth="1"/>
-    <col min="20" max="20" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -671,7 +711,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -800,6 +840,45 @@
       <c r="U3" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
